--- a/APF/RA006/RA006_APF0504_Tab逾時閃爍機制.xlsx
+++ b/APF/RA006/RA006_APF0504_Tab逾時閃爍機制.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="990" yWindow="5685" windowWidth="12855" windowHeight="8430" tabRatio="588" activeTab="2"/>
   </bookViews>
@@ -11,28 +16,28 @@
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
     <sheet name="IPO" sheetId="34" r:id="rId4"/>
-    <sheet name="畫面_APF0001MM1" sheetId="7" r:id="rId5"/>
-    <sheet name="欄位_APF0001MM1" sheetId="14" r:id="rId6"/>
+    <sheet name="畫面_APF0504_SessionTimeout" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0504_SessionTimeout" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0001MM1!$A$1:$J$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0504_SessionTimeout!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0504_SessionTimeout!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0001MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0001MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0504_SessionTimeout!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0504_SessionTimeout!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0001MM1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0504_SessionTimeout!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -366,23 +371,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>輸入/輸出/必填</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-  </si>
-  <si>
-    <t>自動</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -413,27 +402,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>class_id</t>
-  </si>
-  <si>
-    <t>parameter_class</t>
-  </si>
-  <si>
-    <t>parameter_name</t>
-  </si>
-  <si>
-    <t>parameter_value</t>
-  </si>
-  <si>
-    <t>parameter_desrciption</t>
-  </si>
-  <si>
-    <t>reg_date</t>
-  </si>
-  <si>
-    <t>enable_flag</t>
-  </si>
-  <si>
     <t>參數類別</t>
   </si>
   <si>
@@ -455,27 +423,7 @@
     <t>common_parameter</t>
   </si>
   <si>
-    <t>nvarchar(50)</t>
-  </si>
-  <si>
-    <t>nvarchar(255)</t>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>類別key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>各模組功能Timeout時呼叫，APF框架將已逾時功能Tab，以閃爍狀態通知User</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1. 提醒使用者目前的功能頁面即將/已經預時，可讓使用者有準備時以間保留/儲存畫面資訊。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -490,6 +438,94 @@
   <si>
     <t>N/A</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模組功能Timeout時呼叫，APF框架將已逾時功能Tab，以閃爍狀態通知User</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1. 提醒使用者目前的功能頁面即將或已經逾時，可讓使用者有準備時間保留或儲存畫面資訊。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_class</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_name</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_value</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_desrciption</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_flag</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(255)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK，流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab逾時閃爍機制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0504_SessionTimeout</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0504_SessionTimeout</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,19 +686,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -670,8 +693,22 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,12 +748,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +1010,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -995,10 +1026,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1182,9 +1210,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1200,6 +1225,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1209,57 +1279,126 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,156 +1416,23 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="9" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="9">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2"/>
     <cellStyle name="一般 2 2" xfId="5"/>
-    <cellStyle name="一般 2 3" xfId="9"/>
+    <cellStyle name="一般 2 3" xfId="8"/>
     <cellStyle name="一般 3" xfId="4"/>
-    <cellStyle name="一般 4" xfId="8"/>
-    <cellStyle name="一般_12312" xfId="6"/>
+    <cellStyle name="一般 4" xfId="7"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
-    <cellStyle name="超連結 2" xfId="7"/>
+    <cellStyle name="超連結 2" xfId="6"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1434,6 +1440,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2457,8 +2466,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2471,7 +2480,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2479,6 +2488,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2492,13 +2512,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2512,7 +2532,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2520,6 +2540,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2558,7 +2589,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2566,6 +2597,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3664,7 +3706,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3672,6 +3714,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4578,7 +4631,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4591,12 +4644,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
@@ -4627,11 +4680,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>77</v>
+      <c r="A4" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
@@ -4639,49 +4692,59 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="135" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="135" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -4730,6 +4793,9 @@
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
     <hyperlink ref="D4" location="IPO!A1" display="View"/>
+    <hyperlink ref="D5:D6" location="IPO!A1" display="View"/>
+    <hyperlink ref="D5" location="畫面_APF0504_SessionTimeout!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位_APF0504_SessionTimeout!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4758,7 +4824,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="13"/>
@@ -4781,7 +4847,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="68"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -4795,7 +4861,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="68"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -4986,10 +5052,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5002,15 +5068,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="68"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="68"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="1:13" s="61" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="62"/>
@@ -5027,214 +5093,219 @@
       <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="84" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:13" s="40" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="75"/>
+      <c r="A8" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:13" s="40" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="A10" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="76" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:13" s="40" customFormat="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="76" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="75"/>
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1">
-      <c r="A14" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
+      <c r="A14" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="79" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="75"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A36:L36"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5248,11 +5319,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -5267,7 +5333,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -5276,10 +5342,10 @@
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5297,13 +5363,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>67</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -5329,15 +5395,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="86" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="88"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="88"/>
+      <c r="P3" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5388,7 +5454,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5417,7 +5483,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="L1" s="36"/>
@@ -5438,7 +5504,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="68"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:17" s="37" customFormat="1">
       <c r="A3" s="21"/>
@@ -5451,7 +5517,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="68"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:17" s="37" customFormat="1">
       <c r="A4" s="21"/>
@@ -5466,94 +5532,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="37" customFormat="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="125"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="128"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:17" s="40" customFormat="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:17" s="40" customFormat="1">
       <c r="A12" s="58"/>
@@ -5868,114 +5934,114 @@
       <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="78"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
     </row>
     <row r="39" spans="1:10" s="40" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="132"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="75"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="69"/>
     </row>
     <row r="40" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="78"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
     </row>
     <row r="41" spans="1:10" s="40" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="75"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="119" t="s">
+      <c r="A42" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="78"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="75"/>
     </row>
     <row r="43" spans="1:10" s="38" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="100"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="120"/>
     </row>
     <row r="44" spans="1:10" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="97"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="111"/>
     </row>
     <row r="45" spans="1:10" s="38" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="115"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="91"/>
     </row>
     <row r="46" spans="1:10" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="48" t="s">
@@ -5984,78 +6050,78 @@
       <c r="B46" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="116" t="s">
+      <c r="C46" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="94"/>
     </row>
     <row r="47" spans="1:10" s="38" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="103"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="123"/>
     </row>
     <row r="48" spans="1:10" s="38" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="103"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="123"/>
     </row>
     <row r="49" spans="1:12" s="38" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="103"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="123"/>
     </row>
     <row r="50" spans="1:12" s="38" customFormat="1">
-      <c r="A50" s="98"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="105"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="125"/>
     </row>
     <row r="51" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="97"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="41" t="s">
@@ -6070,14 +6136,14 @@
       <c r="D52" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="93" t="s">
+      <c r="E52" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
     </row>
@@ -6088,26 +6154,26 @@
       <c r="B53" s="45"/>
       <c r="C53" s="46"/>
       <c r="D53" s="47"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
     </row>
     <row r="54" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="92"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="129"/>
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
     </row>
@@ -6122,106 +6188,106 @@
         <v>17</v>
       </c>
       <c r="D55" s="51"/>
-      <c r="E55" s="89" t="s">
+      <c r="E55" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
     </row>
     <row r="56" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="122" t="s">
+      <c r="A56" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="124"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="100"/>
     </row>
     <row r="57" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="120" t="s">
+      <c r="B57" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="121"/>
-      <c r="D57" s="112" t="s">
+      <c r="C57" s="97"/>
+      <c r="D57" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="75"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="107"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="109"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="115"/>
     </row>
     <row r="59" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="52"/>
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="75"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="52"/>
-      <c r="B60" s="110"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="75"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="69"/>
     </row>
     <row r="61" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="107"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="109"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="115"/>
     </row>
     <row r="62" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="52"/>
-      <c r="B62" s="110"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="75"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="69"/>
     </row>
     <row r="63" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="53" t="s">
@@ -6244,14 +6310,14 @@
       <c r="B64" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="110"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="75"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="52">
@@ -6260,17 +6326,37 @@
       <c r="B65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="106"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6287,26 +6373,6 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -6354,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6387,7 +6453,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="L1" s="13"/>
@@ -6414,7 +6480,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="68"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6432,7 +6498,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="68"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6476,18 +6542,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6554,18 +6620,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="133" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="A10" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6593,7 +6659,7 @@
         <v>55</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -6603,167 +6669,174 @@
       <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="138" t="s">
-        <v>98</v>
+      <c r="B12" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="140" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="63" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="22">
         <v>2</v>
       </c>
-      <c r="B13" s="138" t="s">
-        <v>87</v>
+      <c r="B13" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="140" t="s">
-        <v>94</v>
+      <c r="F13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="22">
         <v>3</v>
       </c>
-      <c r="B14" s="138" t="s">
-        <v>88</v>
+      <c r="B14" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="140" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="22">
         <v>4</v>
       </c>
-      <c r="B15" s="138" t="s">
-        <v>89</v>
+      <c r="B15" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="140" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:23" ht="33">
+        <v>101</v>
+      </c>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="139" t="s">
-        <v>90</v>
+      <c r="B16" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="141" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="22"/>
-      <c r="B17" s="139" t="s">
-        <v>91</v>
+      <c r="A17" s="22">
+        <v>6</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="141" t="s">
-        <v>71</v>
+      <c r="G17" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="22"/>
-      <c r="B18" s="139" t="s">
-        <v>92</v>
+      <c r="A18" s="22">
+        <v>7</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="139" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="142" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="F22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/APF/RA006/RA006_APF0504_Tab逾時閃爍機制.xlsx
+++ b/APF/RA006/RA006_APF0504_Tab逾時閃爍機制.xlsx
@@ -9,26 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="990" yWindow="5685" windowWidth="12855" windowHeight="8430" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="990" yWindow="5685" windowWidth="12855" windowHeight="8430" tabRatio="588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="34" r:id="rId4"/>
-    <sheet name="畫面_APF0504_SessionTimeout" sheetId="7" r:id="rId5"/>
+    <sheet name="IPO" sheetId="36" r:id="rId4"/>
+    <sheet name="Function_APF0504_SessionTimeout" sheetId="35" r:id="rId5"/>
     <sheet name="欄位_APF0504_SessionTimeout" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Function_APF0504_SessionTimeout!$A$1:$J$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0504_SessionTimeout!$A$1:$J$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0504_SessionTimeout!$A$1:$J$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Function_APF0504_SessionTimeout!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0504_SessionTimeout!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0504_SessionTimeout!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0504_SessionTimeout!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Function_APF0504_SessionTimeout!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -58,38 +58,6 @@
   </si>
   <si>
     <t>參考資料說明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>共通元件</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>特殊說明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>應用時機</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>內容說明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>事後檢核</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -124,14 +92,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -199,18 +159,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>控制項名稱</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -240,18 +188,6 @@
   </si>
   <si>
     <t>處理流程說明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>事前檢核</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>畫面說明</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>『登出』</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -296,14 +232,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>APF0001MM1_Status</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -314,26 +242,6 @@
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
-2.若選擇是
-  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
-  2.2導回SSO登入頁(APF0002MM1)。
-3.若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UI控制項型態及長度</t>
@@ -525,6 +433,30 @@
   </si>
   <si>
     <t>欄位_APF0504_SessionTimeout</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function說明</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HomeController</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GetAllSessionTimout()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.供先端 Javascript 取得所有模組的 Session Timeout 時間，ex: /Home/GetAllSessionTimeout()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>共通元件</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -870,17 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -892,40 +813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1034,36 +926,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1134,9 +1026,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1149,7 +1038,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,264 +1054,159 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2464,8 +2248,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
@@ -2580,10 +2364,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7169" name="Object 1" hidden="1">
+            <xdr:cNvPr id="10241" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7169"/>
+                  <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3167,7 +2951,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1627" name="群組 1"/>
+        <xdr:cNvPr id="2" name="群組 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3182,7 +2966,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1049" name="Rectangle 25"/>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3255,7 +3039,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1050" name="Rectangle 26"/>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3332,7 +3116,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1051" name="Rectangle 27"/>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3409,7 +3193,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1052" name="Rectangle 28"/>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3489,7 +3273,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1053" name="Rectangle 29"/>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3537,22 +3321,15 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="標楷體"/>
                 <a:ea typeface="標楷體"/>
               </a:rPr>
-              <a:t>???</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體"/>
-              <a:ea typeface="標楷體"/>
-            </a:endParaRPr>
+              <a:t>陳鈺杰</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l" rtl="0">
@@ -3570,7 +3347,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1054" name="Rectangle 30"/>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3646,7 +3423,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1643" name="Line 31"/>
+          <xdr:cNvPr id="9" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3680,58 +3457,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5121"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4644,107 +4369,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>72</v>
+      <c r="A4" s="55" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="65" t="s">
-        <v>105</v>
+      <c r="A5" s="60" t="s">
+        <v>83</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="135" t="s">
-        <v>104</v>
+      <c r="D5" s="58" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="65"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="135" t="s">
-        <v>104</v>
+      <c r="D6" s="58" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="65"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="65"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="65"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -4824,8 +4549,8 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="66" t="s">
-        <v>54</v>
+      <c r="E1" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4847,7 +4572,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="67"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -4861,7 +4586,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="67"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -4889,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="13"/>
@@ -4911,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D6" s="28">
         <v>41572</v>
@@ -5054,7 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -5068,233 +4793,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="66" t="s">
-        <v>54</v>
+      <c r="M1" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="67"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="67"/>
-    </row>
-    <row r="4" spans="1:13" s="61" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-    </row>
-    <row r="5" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82"/>
-    </row>
-    <row r="6" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
-    </row>
-    <row r="7" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
-    </row>
-    <row r="8" spans="1:13" s="40" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-    </row>
-    <row r="9" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
-    </row>
-    <row r="10" spans="1:13" s="40" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-    </row>
-    <row r="11" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="71" t="s">
+      <c r="M3" s="62"/>
+    </row>
+    <row r="4" spans="1:13" s="53" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80"/>
+    </row>
+    <row r="7" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+    </row>
+    <row r="8" spans="1:13" s="39" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+    </row>
+    <row r="10" spans="1:13" s="39" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
+    </row>
+    <row r="12" spans="1:13" s="39" customFormat="1">
+      <c r="A12" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
+    </row>
+    <row r="13" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+    </row>
+    <row r="14" spans="1:13" s="39" customFormat="1">
+      <c r="A14" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
-    </row>
-    <row r="12" spans="1:13" s="40" customFormat="1">
-      <c r="A12" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
-    </row>
-    <row r="13" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-    </row>
-    <row r="14" spans="1:13" s="40" customFormat="1">
-      <c r="A14" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5388,22 +5113,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="86" t="s">
-        <v>60</v>
+      <c r="P1" s="81" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="87"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="87"/>
+      <c r="P3" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5421,7 +5146,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="7169" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="10241" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -5441,7 +5166,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="7169" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="10241" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -5449,18 +5174,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="37" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="36" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="36" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="36" customWidth="1"/>
@@ -5472,19 +5196,19 @@
     <col min="11" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="37" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="66" t="s">
-        <v>54</v>
+    <row r="1" spans="1:17" s="56" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -5493,888 +5217,780 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:17" s="37" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:17" s="37" customFormat="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:17" s="37" customFormat="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" s="37" customFormat="1">
-      <c r="A5" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-    </row>
-    <row r="6" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-    </row>
-    <row r="7" spans="1:17" s="38" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:17" s="38" customFormat="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:17" s="38" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-    </row>
-    <row r="10" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:17" s="40" customFormat="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-    </row>
-    <row r="12" spans="1:17" s="40" customFormat="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="1:17" s="40" customFormat="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-    </row>
-    <row r="14" spans="1:17" s="40" customFormat="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-    </row>
-    <row r="15" spans="1:17" s="40" customFormat="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-    </row>
-    <row r="16" spans="1:17" s="40" customFormat="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
-    </row>
-    <row r="17" spans="1:10" s="40" customFormat="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-    </row>
-    <row r="18" spans="1:10" s="40" customFormat="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-    </row>
-    <row r="19" spans="1:10" s="40" customFormat="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-    </row>
-    <row r="20" spans="1:10" s="40" customFormat="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-    </row>
-    <row r="21" spans="1:10" s="40" customFormat="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-    </row>
-    <row r="22" spans="1:10" s="40" customFormat="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-    </row>
-    <row r="23" spans="1:10" s="40" customFormat="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-    </row>
-    <row r="24" spans="1:10" s="40" customFormat="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-    </row>
-    <row r="25" spans="1:10" s="40" customFormat="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-    </row>
-    <row r="26" spans="1:10" s="40" customFormat="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
-    </row>
-    <row r="27" spans="1:10" s="40" customFormat="1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-    </row>
-    <row r="28" spans="1:10" s="40" customFormat="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-    </row>
-    <row r="29" spans="1:10" s="40" customFormat="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-    </row>
-    <row r="30" spans="1:10" s="40" customFormat="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" s="40" customFormat="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
-    </row>
-    <row r="32" spans="1:10" s="40" customFormat="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="60"/>
-    </row>
-    <row r="33" spans="1:10" s="40" customFormat="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="60"/>
-    </row>
-    <row r="34" spans="1:10" s="40" customFormat="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
-    </row>
-    <row r="35" spans="1:10" s="40" customFormat="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="60"/>
-    </row>
-    <row r="36" spans="1:10" s="40" customFormat="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="60"/>
-    </row>
-    <row r="37" spans="1:10" s="40" customFormat="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="60"/>
-    </row>
-    <row r="38" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75"/>
-    </row>
-    <row r="39" spans="1:10" s="40" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="108"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="69"/>
-    </row>
-    <row r="40" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
-    </row>
-    <row r="41" spans="1:10" s="40" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="69"/>
-    </row>
-    <row r="42" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="75"/>
-    </row>
-    <row r="43" spans="1:10" s="38" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="120"/>
-    </row>
-    <row r="44" spans="1:10" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
-    </row>
-    <row r="45" spans="1:10" s="38" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="89"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-    </row>
-    <row r="46" spans="1:10" s="38" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="94"/>
-    </row>
-    <row r="47" spans="1:10" s="38" customFormat="1" ht="36" customHeight="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="123"/>
-    </row>
-    <row r="48" spans="1:10" s="38" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="123"/>
-    </row>
-    <row r="49" spans="1:12" s="38" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="123"/>
-    </row>
-    <row r="50" spans="1:12" s="38" customFormat="1">
-      <c r="A50" s="118"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="125"/>
-    </row>
-    <row r="51" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
-    </row>
-    <row r="52" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-    </row>
-    <row r="53" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="45">
+    <row r="2" spans="1:17" s="56" customFormat="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:17" s="56" customFormat="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:17" s="56" customFormat="1">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
+    </row>
+    <row r="6" spans="1:17" s="37" customFormat="1">
+      <c r="A6" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" s="37" customFormat="1" ht="33">
+      <c r="A7" s="44">
         <v>1</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-    </row>
-    <row r="54" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="128"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-    </row>
-    <row r="55" spans="1:12" s="38" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A55" s="48">
+      <c r="B7" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:17" s="37" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:17" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" s="39" customFormat="1">
+      <c r="A11" s="47">
         <v>1</v>
       </c>
-      <c r="B55" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-    </row>
-    <row r="56" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="100"/>
-    </row>
-    <row r="57" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="97"/>
-      <c r="D57" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
-    </row>
-    <row r="58" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="115"/>
-    </row>
-    <row r="59" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="52"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
-    </row>
-    <row r="60" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="52"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="69"/>
-    </row>
-    <row r="61" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="113"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="115"/>
-    </row>
-    <row r="62" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="52"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="69"/>
-    </row>
-    <row r="63" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="56"/>
-    </row>
-    <row r="64" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="52">
-        <v>1</v>
-      </c>
-      <c r="B64" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="69"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="52">
+      <c r="B11" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="1:17" s="39" customFormat="1">
+      <c r="A12" s="47">
         <v>2</v>
       </c>
-      <c r="B65" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
+      <c r="B12" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+    </row>
+    <row r="13" spans="1:17" s="39" customFormat="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" s="39" customFormat="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:17" s="39" customFormat="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:17" s="39" customFormat="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" s="39" customFormat="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" s="39" customFormat="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" s="39" customFormat="1">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" s="39" customFormat="1">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" s="39" customFormat="1">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10" s="39" customFormat="1">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" s="39" customFormat="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" s="39" customFormat="1">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" s="39" customFormat="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" s="39" customFormat="1">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" s="39" customFormat="1">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10" s="39" customFormat="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" s="39" customFormat="1">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10" s="39" customFormat="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10" s="39" customFormat="1">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10" s="39" customFormat="1" ht="171" customHeight="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10" s="39" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:10" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="1:10" s="37" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+    </row>
+    <row r="43" spans="1:10" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="1:10" s="37" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="1:10" s="37" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+    </row>
+    <row r="46" spans="1:10" s="37" customFormat="1" ht="36" customHeight="1">
+      <c r="A46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+    </row>
+    <row r="47" spans="1:10" s="37" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="1:10" s="37" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+    </row>
+    <row r="49" spans="1:12" s="37" customFormat="1">
+      <c r="A49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+    </row>
+    <row r="50" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+    </row>
+    <row r="51" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+    </row>
+    <row r="52" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+    </row>
+    <row r="53" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+    </row>
+    <row r="54" spans="1:12" s="37" customFormat="1" ht="129.75" customHeight="1">
+      <c r="A54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+    </row>
+    <row r="55" spans="1:12" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+    </row>
+    <row r="56" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+    </row>
+    <row r="57" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+    </row>
+    <row r="59" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+    </row>
+    <row r="60" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+    </row>
+    <row r="61" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+    </row>
+    <row r="62" spans="1:12" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+    </row>
+    <row r="63" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C46:J46"/>
+  <mergeCells count="9">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K1" location="總表!A1" display="回總表"/>
     <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
@@ -6387,34 +6003,6 @@
     <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="5121" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="5121" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -6453,8 +6041,8 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="66" t="s">
-        <v>54</v>
+      <c r="K1" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6480,7 +6068,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6498,7 +6086,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="67"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6542,18 +6130,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
+      <c r="A6" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6566,28 +6154,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6620,46 +6208,46 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="A10" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -6670,25 +6258,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -6696,22 +6284,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J13" s="19"/>
     </row>
@@ -6720,22 +6308,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J14" s="19"/>
     </row>
@@ -6744,22 +6332,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -6768,22 +6356,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J16" s="19"/>
     </row>
@@ -6792,22 +6380,22 @@
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J17" s="19"/>
     </row>
@@ -6816,22 +6404,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J18" s="19"/>
     </row>

--- a/APF/RA006/RA006_APF0504_Tab逾時閃爍機制.xlsx
+++ b/APF/RA006/RA006_APF0504_Tab逾時閃爍機制.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="990" yWindow="5685" windowWidth="12855" windowHeight="8430" tabRatio="588" activeTab="3"/>
+    <workbookView xWindow="990" yWindow="5685" windowWidth="12855" windowHeight="8430" tabRatio="588" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -458,6 +458,10 @@
   <si>
     <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_parameter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2243,15 +2247,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2295,15 +2299,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2357,10 +2361,10 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3485,7 +3489,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12677775" cy="609600"/>
+          <a:ext cx="13392150" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4777,10 +4781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5005,21 +5009,21 @@
       <c r="K15" s="63"/>
       <c r="L15" s="64"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="65" t="s">
+    <row r="43" spans="1:12">
+      <c r="A43" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5030,7 +5034,7 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A43:L43"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5062,15 +5066,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5087,15 +5091,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5113,8 +5117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5156,10 +5160,10 @@
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6010,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6020,7 +6024,7 @@
     <col min="2" max="2" width="16.75" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="15" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="15" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="15" customWidth="1"/>
     <col min="8" max="8" width="11" style="15" customWidth="1"/>
@@ -6263,7 +6267,7 @@
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>66</v>
